--- a/US_Stocks_Individual.xlsx
+++ b/US_Stocks_Individual.xlsx
@@ -606,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,6 +626,7 @@
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -669,6 +670,9 @@
       <c r="L1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -711,6 +715,9 @@
       <c r="L2" t="n">
         <v>65</v>
       </c>
+      <c r="M2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -753,6 +760,9 @@
       <c r="L3" t="n">
         <v>6</v>
       </c>
+      <c r="M3" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -795,6 +805,9 @@
       <c r="L4" t="n">
         <v>96</v>
       </c>
+      <c r="M4" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -837,6 +850,9 @@
       <c r="L5" t="n">
         <v>-79</v>
       </c>
+      <c r="M5" t="n">
+        <v>-53</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -879,6 +895,9 @@
       <c r="L6" t="n">
         <v>-90</v>
       </c>
+      <c r="M6" t="n">
+        <v>-86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -921,6 +940,9 @@
       <c r="L7" t="n">
         <v>-19</v>
       </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -963,6 +985,9 @@
       <c r="L8" t="n">
         <v>15</v>
       </c>
+      <c r="M8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1005,6 +1030,9 @@
       <c r="L9" t="n">
         <v>25</v>
       </c>
+      <c r="M9" t="n">
+        <v>-16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1046,6 +1074,9 @@
       </c>
       <c r="L10" t="n">
         <v>61</v>
+      </c>
+      <c r="M10" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,6 +1150,7 @@
     <col width="12" customWidth="1" min="50" max="50"/>
     <col width="12" customWidth="1" min="51" max="51"/>
     <col width="12" customWidth="1" min="52" max="52"/>
+    <col width="12" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1382,6 +1414,11 @@
           <t>20251205</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>20251208</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1544,6 +1581,9 @@
       <c r="AZ2" t="n">
         <v>101</v>
       </c>
+      <c r="BA2" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1706,6 +1746,9 @@
       <c r="AZ3" t="n">
         <v>99</v>
       </c>
+      <c r="BA3" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1868,6 +1911,9 @@
       <c r="AZ4" t="n">
         <v>107</v>
       </c>
+      <c r="BA4" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2030,6 +2076,9 @@
       <c r="AZ5" t="n">
         <v>98</v>
       </c>
+      <c r="BA5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2192,6 +2241,9 @@
       <c r="AZ6" t="n">
         <v>24</v>
       </c>
+      <c r="BA6" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2354,6 +2406,9 @@
       <c r="AZ7" t="n">
         <v>99</v>
       </c>
+      <c r="BA7" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2516,6 +2571,9 @@
       <c r="AZ8" t="n">
         <v>106</v>
       </c>
+      <c r="BA8" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2678,6 +2736,9 @@
       <c r="AZ9" t="n">
         <v>100</v>
       </c>
+      <c r="BA9" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2839,6 +2900,9 @@
       </c>
       <c r="AZ10" t="n">
         <v>108</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,6 +2957,7 @@
     <col width="12" customWidth="1" min="31" max="31"/>
     <col width="12" customWidth="1" min="32" max="32"/>
     <col width="12" customWidth="1" min="33" max="33"/>
+    <col width="12" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3061,6 +3126,11 @@
           <t>20251205</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>20251208</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3166,6 +3236,9 @@
       <c r="AG2" t="n">
         <v>19.94</v>
       </c>
+      <c r="AH2" t="n">
+        <v>20.52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3271,6 +3344,9 @@
       <c r="AG3" t="n">
         <v>-24.34</v>
       </c>
+      <c r="AH3" t="n">
+        <v>-25.91</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3376,6 +3452,9 @@
       <c r="AG4" t="n">
         <v>27.14</v>
       </c>
+      <c r="AH4" t="n">
+        <v>21.61</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3481,6 +3560,9 @@
       <c r="AG5" t="n">
         <v>-8.4</v>
       </c>
+      <c r="AH5" t="n">
+        <v>-9.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3586,6 +3668,9 @@
       <c r="AG6" t="n">
         <v>46.52</v>
       </c>
+      <c r="AH6" t="n">
+        <v>31.26</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3691,6 +3776,9 @@
       <c r="AG7" t="n">
         <v>-27.95</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3796,6 +3884,9 @@
       <c r="AG8" t="n">
         <v>-11.14</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-10.48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3901,6 +3992,9 @@
       <c r="AG9" t="n">
         <v>-31.85</v>
       </c>
+      <c r="AH9" t="n">
+        <v>-27.77</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4005,6 +4099,9 @@
       </c>
       <c r="AG10" t="n">
         <v>1.53</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -4018,7 +4115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4038,6 +4135,7 @@
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4101,6 +4199,11 @@
           <t>20251205</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>20251208</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4143,6 +4246,9 @@
       <c r="L2" t="n">
         <v>47</v>
       </c>
+      <c r="M2" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4185,6 +4291,9 @@
       <c r="L3" t="n">
         <v>34</v>
       </c>
+      <c r="M3" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4227,6 +4336,9 @@
       <c r="L4" t="n">
         <v>39</v>
       </c>
+      <c r="M4" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4269,6 +4381,9 @@
       <c r="L5" t="n">
         <v>51</v>
       </c>
+      <c r="M5" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4311,6 +4426,9 @@
       <c r="L6" t="n">
         <v>505</v>
       </c>
+      <c r="M6" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4353,6 +4471,9 @@
       <c r="L7" t="n">
         <v>38</v>
       </c>
+      <c r="M7" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4395,6 +4516,9 @@
       <c r="L8" t="n">
         <v>30</v>
       </c>
+      <c r="M8" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4437,6 +4561,9 @@
       <c r="L9" t="n">
         <v>48</v>
       </c>
+      <c r="M9" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4478,6 +4605,9 @@
       </c>
       <c r="L10" t="n">
         <v>32</v>
+      </c>
+      <c r="M10" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4491,7 +4621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS10"/>
+  <dimension ref="A1:BT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4570,6 +4700,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4790,6 +4921,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5009,6 +5143,9 @@
       <c r="BS2" t="n">
         <v>280.54</v>
       </c>
+      <c r="BT2" t="n">
+        <v>278.13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5228,6 +5365,9 @@
       <c r="BS3" t="n">
         <v>230.32</v>
       </c>
+      <c r="BT3" t="n">
+        <v>229.59</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5447,6 +5587,9 @@
       <c r="BS4" t="n">
         <v>319.49</v>
       </c>
+      <c r="BT4" t="n">
+        <v>320.05</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5666,6 +5809,9 @@
       <c r="BS5" t="n">
         <v>482.515</v>
       </c>
+      <c r="BT5" t="n">
+        <v>484.885</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5885,6 +6031,9 @@
       <c r="BS6" t="n">
         <v>98.77500000000001</v>
       </c>
+      <c r="BT6" t="n">
+        <v>99.87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6104,6 +6253,9 @@
       <c r="BS7" t="n">
         <v>183.89</v>
       </c>
+      <c r="BT7" t="n">
+        <v>182.64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6323,6 +6475,9 @@
       <c r="BS8" t="n">
         <v>178.23</v>
       </c>
+      <c r="BT8" t="n">
+        <v>182.21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6542,6 +6697,9 @@
       <c r="BS9" t="n">
         <v>84.91</v>
       </c>
+      <c r="BT9" t="n">
+        <v>85.13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6760,6 +6918,9 @@
       </c>
       <c r="BS10" t="n">
         <v>453.03</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>447.445</v>
       </c>
     </row>
   </sheetData>
@@ -6773,7 +6934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS10"/>
+  <dimension ref="A1:BT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6852,6 +7013,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7072,6 +7234,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7291,6 +7456,9 @@
       <c r="BS2" t="n">
         <v>281.14</v>
       </c>
+      <c r="BT2" t="n">
+        <v>279.6693</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7510,6 +7678,9 @@
       <c r="BS3" t="n">
         <v>231.24</v>
       </c>
+      <c r="BT3" t="n">
+        <v>230.83</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7729,6 +7900,9 @@
       <c r="BS4" t="n">
         <v>323.16</v>
       </c>
+      <c r="BT4" t="n">
+        <v>320.44</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7948,6 +8122,9 @@
       <c r="BS5" t="n">
         <v>483.4</v>
       </c>
+      <c r="BT5" t="n">
+        <v>492.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8167,6 +8344,9 @@
       <c r="BS6" t="n">
         <v>104.79</v>
       </c>
+      <c r="BT6" t="n">
+        <v>99.89</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8386,6 +8566,9 @@
       <c r="BS7" t="n">
         <v>184.66</v>
       </c>
+      <c r="BT7" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8605,6 +8788,9 @@
       <c r="BS8" t="n">
         <v>182.1532</v>
       </c>
+      <c r="BT8" t="n">
+        <v>183.8799</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8824,6 +9010,9 @@
       <c r="BS9" t="n">
         <v>86.51000000000001</v>
       </c>
+      <c r="BT9" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9042,6 +9231,9 @@
       </c>
       <c r="BS10" t="n">
         <v>458.87</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>449.7463</v>
       </c>
     </row>
   </sheetData>
@@ -9055,7 +9247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS10"/>
+  <dimension ref="A1:BT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9134,6 +9326,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9354,6 +9547,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9573,6 +9769,9 @@
       <c r="BS2" t="n">
         <v>278.05</v>
       </c>
+      <c r="BT2" t="n">
+        <v>276.15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9792,6 +9991,9 @@
       <c r="BS3" t="n">
         <v>228.547</v>
       </c>
+      <c r="BT3" t="n">
+        <v>226.27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10011,6 +10213,9 @@
       <c r="BS4" t="n">
         <v>319.165</v>
       </c>
+      <c r="BT4" t="n">
+        <v>311.2219</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10230,6 +10435,9 @@
       <c r="BS5" t="n">
         <v>478.8801</v>
       </c>
+      <c r="BT5" t="n">
+        <v>484.38</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10449,6 +10657,9 @@
       <c r="BS6" t="n">
         <v>97.73999999999999</v>
       </c>
+      <c r="BT6" t="n">
+        <v>95.3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10668,6 +10879,9 @@
       <c r="BS7" t="n">
         <v>180.91</v>
       </c>
+      <c r="BT7" t="n">
+        <v>182.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10887,6 +11101,9 @@
       <c r="BS8" t="n">
         <v>177.1601</v>
       </c>
+      <c r="BT8" t="n">
+        <v>179.54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11106,6 +11323,9 @@
       <c r="BS9" t="n">
         <v>84.8039</v>
       </c>
+      <c r="BT9" t="n">
+        <v>83.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11324,6 +11544,9 @@
       </c>
       <c r="BS10" t="n">
         <v>451.66</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>435.25</v>
       </c>
     </row>
   </sheetData>
@@ -11337,7 +11560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS10"/>
+  <dimension ref="A1:BT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11416,6 +11639,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11636,6 +11860,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11855,6 +12082,9 @@
       <c r="BS2" t="n">
         <v>278.78</v>
       </c>
+      <c r="BT2" t="n">
+        <v>277.89</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12074,6 +12304,9 @@
       <c r="BS3" t="n">
         <v>229.53</v>
       </c>
+      <c r="BT3" t="n">
+        <v>226.89</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12293,6 +12526,9 @@
       <c r="BS4" t="n">
         <v>321.27</v>
       </c>
+      <c r="BT4" t="n">
+        <v>313.72</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12512,6 +12748,9 @@
       <c r="BS5" t="n">
         <v>483.16</v>
       </c>
+      <c r="BT5" t="n">
+        <v>491.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12731,6 +12970,9 @@
       <c r="BS6" t="n">
         <v>100.24</v>
       </c>
+      <c r="BT6" t="n">
+        <v>96.79000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12950,6 +13192,9 @@
       <c r="BS7" t="n">
         <v>182.41</v>
       </c>
+      <c r="BT7" t="n">
+        <v>185.55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13169,6 +13414,9 @@
       <c r="BS8" t="n">
         <v>181.76</v>
       </c>
+      <c r="BT8" t="n">
+        <v>181.49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13388,6 +13636,9 @@
       <c r="BS9" t="n">
         <v>85.12</v>
       </c>
+      <c r="BT9" t="n">
+        <v>83.41</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13606,6 +13857,9 @@
       </c>
       <c r="BS10" t="n">
         <v>455</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>439.58</v>
       </c>
     </row>
   </sheetData>
@@ -13619,7 +13873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS10"/>
+  <dimension ref="A1:BT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13698,6 +13952,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13918,6 +14173,9 @@
       <c r="BS1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BT1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -14137,6 +14395,9 @@
       <c r="BS2" t="n">
         <v>47265845</v>
       </c>
+      <c r="BT2" t="n">
+        <v>38211832</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -14356,6 +14617,9 @@
       <c r="BS3" t="n">
         <v>33117377</v>
       </c>
+      <c r="BT3" t="n">
+        <v>35019174</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14575,6 +14839,9 @@
       <c r="BS4" t="n">
         <v>28851705</v>
       </c>
+      <c r="BT4" t="n">
+        <v>33909433</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -14794,6 +15061,9 @@
       <c r="BS5" t="n">
         <v>22608710</v>
       </c>
+      <c r="BT5" t="n">
+        <v>21965900</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -15013,6 +15283,9 @@
       <c r="BS6" t="n">
         <v>133363601</v>
       </c>
+      <c r="BT6" t="n">
+        <v>100906259</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -15232,6 +15505,9 @@
       <c r="BS7" t="n">
         <v>143971098</v>
       </c>
+      <c r="BT7" t="n">
+        <v>204378106</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -15451,6 +15727,9 @@
       <c r="BS8" t="n">
         <v>32079261</v>
       </c>
+      <c r="BT8" t="n">
+        <v>30456689</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -15670,6 +15949,9 @@
       <c r="BS9" t="n">
         <v>9402927</v>
       </c>
+      <c r="BT9" t="n">
+        <v>10277591</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -15888,6 +16170,9 @@
       </c>
       <c r="BS10" t="n">
         <v>56427522</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>69165753</v>
       </c>
     </row>
   </sheetData>
@@ -15901,7 +16186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15961,6 +16246,7 @@
     <col width="10" customWidth="1" min="50" max="50"/>
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
+    <col width="10" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16124,6 +16410,9 @@
       <c r="AZ1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BA1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16286,6 +16575,9 @@
       <c r="AZ2" t="n">
         <v>63</v>
       </c>
+      <c r="BA2" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16448,6 +16740,9 @@
       <c r="AZ3" t="n">
         <v>39</v>
       </c>
+      <c r="BA3" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16610,6 +16905,9 @@
       <c r="AZ4" t="n">
         <v>95</v>
       </c>
+      <c r="BA4" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16772,6 +17070,9 @@
       <c r="AZ5" t="n">
         <v>28</v>
       </c>
+      <c r="BA5" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16934,6 +17235,9 @@
       <c r="AZ6" t="n">
         <v>0</v>
       </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17096,6 +17400,9 @@
       <c r="AZ7" t="n">
         <v>25</v>
       </c>
+      <c r="BA7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17258,6 +17565,9 @@
       <c r="AZ8" t="n">
         <v>69</v>
       </c>
+      <c r="BA8" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17420,6 +17730,9 @@
       <c r="AZ9" t="n">
         <v>54</v>
       </c>
+      <c r="BA9" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17581,6 +17894,9 @@
       </c>
       <c r="AZ10" t="n">
         <v>100</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -17594,7 +17910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17614,6 +17930,7 @@
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17657,6 +17974,9 @@
       <c r="L1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17699,6 +18019,9 @@
       <c r="L2" t="n">
         <v>86</v>
       </c>
+      <c r="M2" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17741,6 +18064,9 @@
       <c r="L3" t="n">
         <v>40</v>
       </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17783,6 +18109,9 @@
       <c r="L4" t="n">
         <v>98</v>
       </c>
+      <c r="M4" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17825,6 +18154,9 @@
       <c r="L5" t="n">
         <v>16</v>
       </c>
+      <c r="M5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17867,6 +18199,9 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17909,6 +18244,9 @@
       <c r="L7" t="n">
         <v>33</v>
       </c>
+      <c r="M7" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17951,6 +18289,9 @@
       <c r="L8" t="n">
         <v>51</v>
       </c>
+      <c r="M8" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17993,6 +18334,9 @@
       <c r="L9" t="n">
         <v>76</v>
       </c>
+      <c r="M9" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18034,6 +18378,9 @@
       </c>
       <c r="L10" t="n">
         <v>83</v>
+      </c>
+      <c r="M10" t="n">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -18047,7 +18394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18107,6 +18454,7 @@
     <col width="10" customWidth="1" min="50" max="50"/>
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
+    <col width="10" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18270,6 +18618,9 @@
       <c r="AZ1" s="1" t="n">
         <v>20251205</v>
       </c>
+      <c r="BA1" s="1" t="n">
+        <v>20251208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18432,6 +18783,9 @@
       <c r="AZ2" t="n">
         <v>34</v>
       </c>
+      <c r="BA2" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18594,6 +18948,9 @@
       <c r="AZ3" t="n">
         <v>-17</v>
       </c>
+      <c r="BA3" t="n">
+        <v>-28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18756,6 +19113,9 @@
       <c r="AZ4" t="n">
         <v>58</v>
       </c>
+      <c r="BA4" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18918,6 +19278,9 @@
       <c r="AZ5" t="n">
         <v>-31</v>
       </c>
+      <c r="BA5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -19080,6 +19443,9 @@
       <c r="AZ6" t="n">
         <v>-33</v>
       </c>
+      <c r="BA6" t="n">
+        <v>-29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19242,6 +19608,9 @@
       <c r="AZ7" t="n">
         <v>-17</v>
       </c>
+      <c r="BA7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -19404,6 +19773,9 @@
       <c r="AZ8" t="n">
         <v>47</v>
       </c>
+      <c r="BA8" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19566,6 +19938,9 @@
       <c r="AZ9" t="n">
         <v>-3</v>
       </c>
+      <c r="BA9" t="n">
+        <v>-59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19727,6 +20102,9 @@
       </c>
       <c r="AZ10" t="n">
         <v>82</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/US_Stocks_Individual.xlsx
+++ b/US_Stocks_Individual.xlsx
@@ -606,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,6 +627,7 @@
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -673,6 +674,9 @@
       <c r="M1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,6 +722,9 @@
       <c r="M2" t="n">
         <v>60</v>
       </c>
+      <c r="N2" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -763,6 +770,9 @@
       <c r="M3" t="n">
         <v>-7</v>
       </c>
+      <c r="N3" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -808,6 +818,9 @@
       <c r="M4" t="n">
         <v>78</v>
       </c>
+      <c r="N4" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -853,6 +866,9 @@
       <c r="M5" t="n">
         <v>-53</v>
       </c>
+      <c r="N5" t="n">
+        <v>-48</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -898,6 +914,9 @@
       <c r="M6" t="n">
         <v>-86</v>
       </c>
+      <c r="N6" t="n">
+        <v>-83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -943,6 +962,9 @@
       <c r="M7" t="n">
         <v>0</v>
       </c>
+      <c r="N7" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -988,6 +1010,9 @@
       <c r="M8" t="n">
         <v>13</v>
       </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1033,6 +1058,9 @@
       <c r="M9" t="n">
         <v>-16</v>
       </c>
+      <c r="N9" t="n">
+        <v>-43</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1077,6 +1105,9 @@
       </c>
       <c r="M10" t="n">
         <v>17</v>
+      </c>
+      <c r="N10" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA10"/>
+  <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,6 +1182,7 @@
     <col width="12" customWidth="1" min="51" max="51"/>
     <col width="12" customWidth="1" min="52" max="52"/>
     <col width="12" customWidth="1" min="53" max="53"/>
+    <col width="12" customWidth="1" min="54" max="54"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1419,6 +1451,11 @@
           <t>20251208</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>20251209</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1584,6 +1621,9 @@
       <c r="BA2" t="n">
         <v>101</v>
       </c>
+      <c r="BB2" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1749,6 +1789,9 @@
       <c r="BA3" t="n">
         <v>98</v>
       </c>
+      <c r="BB3" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1914,6 +1957,9 @@
       <c r="BA4" t="n">
         <v>104</v>
       </c>
+      <c r="BB4" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2079,6 +2125,9 @@
       <c r="BA5" t="n">
         <v>100</v>
       </c>
+      <c r="BB5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2244,6 +2293,9 @@
       <c r="BA6" t="n">
         <v>27</v>
       </c>
+      <c r="BB6" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2409,6 +2461,9 @@
       <c r="BA7" t="n">
         <v>101</v>
       </c>
+      <c r="BB7" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2574,6 +2629,9 @@
       <c r="BA8" t="n">
         <v>105</v>
       </c>
+      <c r="BB8" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2739,6 +2797,9 @@
       <c r="BA9" t="n">
         <v>98</v>
       </c>
+      <c r="BB9" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2903,6 +2964,9 @@
       </c>
       <c r="BA10" t="n">
         <v>104</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2916,7 +2980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2958,6 +3022,7 @@
     <col width="12" customWidth="1" min="32" max="32"/>
     <col width="12" customWidth="1" min="33" max="33"/>
     <col width="12" customWidth="1" min="34" max="34"/>
+    <col width="12" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3131,6 +3196,11 @@
           <t>20251208</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>20251209</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3239,6 +3309,9 @@
       <c r="AH2" t="n">
         <v>20.52</v>
       </c>
+      <c r="AI2" t="n">
+        <v>20.63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3347,6 +3420,9 @@
       <c r="AH3" t="n">
         <v>-25.91</v>
       </c>
+      <c r="AI3" t="n">
+        <v>-32.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3455,6 +3531,9 @@
       <c r="AH4" t="n">
         <v>21.61</v>
       </c>
+      <c r="AI4" t="n">
+        <v>20.73</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3563,6 +3642,9 @@
       <c r="AH5" t="n">
         <v>-9.31</v>
       </c>
+      <c r="AI5" t="n">
+        <v>-12.97</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3671,6 +3753,9 @@
       <c r="AH6" t="n">
         <v>31.26</v>
       </c>
+      <c r="AI6" t="n">
+        <v>15.64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3779,6 +3864,9 @@
       <c r="AH7" t="n">
         <v>-27</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-38.91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3887,6 +3975,9 @@
       <c r="AH8" t="n">
         <v>-10.48</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3995,6 +4086,9 @@
       <c r="AH9" t="n">
         <v>-27.77</v>
       </c>
+      <c r="AI9" t="n">
+        <v>-20.19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4102,6 +4196,9 @@
       </c>
       <c r="AH10" t="n">
         <v>1.03</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-1.02</v>
       </c>
     </row>
   </sheetData>
@@ -4115,7 +4212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4136,6 +4233,7 @@
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4204,6 +4302,11 @@
           <t>20251208</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>20251209</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4249,6 +4352,9 @@
       <c r="M2" t="n">
         <v>38</v>
       </c>
+      <c r="N2" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4294,6 +4400,9 @@
       <c r="M3" t="n">
         <v>36</v>
       </c>
+      <c r="N3" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4339,6 +4448,9 @@
       <c r="M4" t="n">
         <v>46</v>
       </c>
+      <c r="N4" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4384,6 +4496,9 @@
       <c r="M5" t="n">
         <v>49</v>
       </c>
+      <c r="N5" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4429,6 +4544,9 @@
       <c r="M6" t="n">
         <v>341</v>
       </c>
+      <c r="N6" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4474,6 +4592,9 @@
       <c r="M7" t="n">
         <v>53</v>
       </c>
+      <c r="N7" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4519,6 +4640,9 @@
       <c r="M8" t="n">
         <v>29</v>
       </c>
+      <c r="N8" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4564,6 +4688,9 @@
       <c r="M9" t="n">
         <v>52</v>
       </c>
+      <c r="N9" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4608,6 +4735,9 @@
       </c>
       <c r="M10" t="n">
         <v>39</v>
+      </c>
+      <c r="N10" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4621,7 +4751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT10"/>
+  <dimension ref="A1:BU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4701,6 +4831,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4924,6 +5055,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5146,6 +5280,9 @@
       <c r="BT2" t="n">
         <v>278.13</v>
       </c>
+      <c r="BU2" t="n">
+        <v>278.16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5368,6 +5505,9 @@
       <c r="BT3" t="n">
         <v>229.59</v>
       </c>
+      <c r="BU3" t="n">
+        <v>226.84</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5590,6 +5730,9 @@
       <c r="BT4" t="n">
         <v>320.05</v>
       </c>
+      <c r="BU4" t="n">
+        <v>312.37</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5812,6 +5955,9 @@
       <c r="BT5" t="n">
         <v>484.885</v>
       </c>
+      <c r="BU5" t="n">
+        <v>489.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6034,6 +6180,9 @@
       <c r="BT6" t="n">
         <v>99.87</v>
       </c>
+      <c r="BU6" t="n">
+        <v>97.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6256,6 +6405,9 @@
       <c r="BT7" t="n">
         <v>182.64</v>
       </c>
+      <c r="BU7" t="n">
+        <v>185.56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6478,6 +6630,9 @@
       <c r="BT8" t="n">
         <v>182.21</v>
       </c>
+      <c r="BU8" t="n">
+        <v>180.97</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6700,6 +6855,9 @@
       <c r="BT9" t="n">
         <v>85.13</v>
       </c>
+      <c r="BU9" t="n">
+        <v>83.31999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6921,6 +7079,9 @@
       </c>
       <c r="BT10" t="n">
         <v>447.445</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>437.54</v>
       </c>
     </row>
   </sheetData>
@@ -6934,7 +7095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT10"/>
+  <dimension ref="A1:BU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7014,6 +7175,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7237,6 +7399,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7459,6 +7624,9 @@
       <c r="BT2" t="n">
         <v>279.6693</v>
       </c>
+      <c r="BU2" t="n">
+        <v>280.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7681,6 +7849,9 @@
       <c r="BT3" t="n">
         <v>230.83</v>
       </c>
+      <c r="BU3" t="n">
+        <v>228.57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7903,6 +8074,9 @@
       <c r="BT4" t="n">
         <v>320.44</v>
       </c>
+      <c r="BU4" t="n">
+        <v>317.99</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8125,6 +8299,9 @@
       <c r="BT5" t="n">
         <v>492.3</v>
       </c>
+      <c r="BU5" t="n">
+        <v>492.12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8347,6 +8524,9 @@
       <c r="BT6" t="n">
         <v>99.89</v>
       </c>
+      <c r="BU6" t="n">
+        <v>97.23999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8569,6 +8749,9 @@
       <c r="BT7" t="n">
         <v>188</v>
       </c>
+      <c r="BU7" t="n">
+        <v>185.7167</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8791,6 +8974,9 @@
       <c r="BT8" t="n">
         <v>183.8799</v>
       </c>
+      <c r="BU8" t="n">
+        <v>182.8499</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9013,6 +9199,9 @@
       <c r="BT9" t="n">
         <v>85.5</v>
       </c>
+      <c r="BU9" t="n">
+        <v>83.33</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9234,6 +9423,9 @@
       </c>
       <c r="BT10" t="n">
         <v>449.7463</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>452.39</v>
       </c>
     </row>
   </sheetData>
@@ -9247,7 +9439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT10"/>
+  <dimension ref="A1:BU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9327,6 +9519,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9550,6 +9743,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9772,6 +9968,9 @@
       <c r="BT2" t="n">
         <v>276.15</v>
       </c>
+      <c r="BU2" t="n">
+        <v>276.92</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9994,6 +10193,9 @@
       <c r="BT3" t="n">
         <v>226.27</v>
       </c>
+      <c r="BU3" t="n">
+        <v>225.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10216,6 +10418,9 @@
       <c r="BT4" t="n">
         <v>311.2219</v>
       </c>
+      <c r="BU4" t="n">
+        <v>311.895</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10438,6 +10643,9 @@
       <c r="BT5" t="n">
         <v>484.38</v>
       </c>
+      <c r="BU5" t="n">
+        <v>488.5001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10660,6 +10868,9 @@
       <c r="BT6" t="n">
         <v>95.3</v>
       </c>
+      <c r="BU6" t="n">
+        <v>95.45</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10882,6 +11093,9 @@
       <c r="BT7" t="n">
         <v>182.4</v>
       </c>
+      <c r="BU7" t="n">
+        <v>183.32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11104,6 +11318,9 @@
       <c r="BT8" t="n">
         <v>179.54</v>
       </c>
+      <c r="BU8" t="n">
+        <v>180.38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11326,6 +11543,9 @@
       <c r="BT9" t="n">
         <v>83.14</v>
       </c>
+      <c r="BU9" t="n">
+        <v>82.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11547,6 +11767,9 @@
       </c>
       <c r="BT10" t="n">
         <v>435.25</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>435.7</v>
       </c>
     </row>
   </sheetData>
@@ -11560,7 +11783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT10"/>
+  <dimension ref="A1:BU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11640,6 +11863,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11863,6 +12087,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12085,6 +12312,9 @@
       <c r="BT2" t="n">
         <v>277.89</v>
       </c>
+      <c r="BU2" t="n">
+        <v>277.18</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12307,6 +12537,9 @@
       <c r="BT3" t="n">
         <v>226.89</v>
       </c>
+      <c r="BU3" t="n">
+        <v>227.92</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12529,6 +12762,9 @@
       <c r="BT4" t="n">
         <v>313.72</v>
       </c>
+      <c r="BU4" t="n">
+        <v>317.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12751,6 +12987,9 @@
       <c r="BT5" t="n">
         <v>491.02</v>
       </c>
+      <c r="BU5" t="n">
+        <v>492.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12973,6 +13212,9 @@
       <c r="BT6" t="n">
         <v>96.79000000000001</v>
       </c>
+      <c r="BU6" t="n">
+        <v>96.70999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13195,6 +13437,9 @@
       <c r="BT7" t="n">
         <v>185.55</v>
       </c>
+      <c r="BU7" t="n">
+        <v>184.97</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13417,6 +13662,9 @@
       <c r="BT8" t="n">
         <v>181.49</v>
       </c>
+      <c r="BU8" t="n">
+        <v>181.84</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13639,6 +13887,9 @@
       <c r="BT9" t="n">
         <v>83.41</v>
       </c>
+      <c r="BU9" t="n">
+        <v>82.28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13860,6 +14111,9 @@
       </c>
       <c r="BT10" t="n">
         <v>439.58</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>445.17</v>
       </c>
     </row>
   </sheetData>
@@ -13873,7 +14127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT10"/>
+  <dimension ref="A1:BU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13953,6 +14207,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14176,6 +14431,9 @@
       <c r="BT1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -14398,6 +14656,9 @@
       <c r="BT2" t="n">
         <v>38211832</v>
       </c>
+      <c r="BU2" t="n">
+        <v>32193256</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -14620,6 +14881,9 @@
       <c r="BT3" t="n">
         <v>35019174</v>
       </c>
+      <c r="BU3" t="n">
+        <v>25841743</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14842,6 +15106,9 @@
       <c r="BT4" t="n">
         <v>33909433</v>
       </c>
+      <c r="BU4" t="n">
+        <v>30194027</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -15064,6 +15331,9 @@
       <c r="BT5" t="n">
         <v>21965900</v>
       </c>
+      <c r="BU5" t="n">
+        <v>14696078</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -15286,6 +15556,9 @@
       <c r="BT6" t="n">
         <v>100906259</v>
       </c>
+      <c r="BU6" t="n">
+        <v>51745577</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -15508,6 +15781,9 @@
       <c r="BT7" t="n">
         <v>204378106</v>
       </c>
+      <c r="BU7" t="n">
+        <v>144719705</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -15730,6 +16006,9 @@
       <c r="BT8" t="n">
         <v>30456689</v>
       </c>
+      <c r="BU8" t="n">
+        <v>18937574</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -15952,6 +16231,9 @@
       <c r="BT9" t="n">
         <v>10277591</v>
       </c>
+      <c r="BU9" t="n">
+        <v>10322876</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16173,6 +16455,9 @@
       </c>
       <c r="BT10" t="n">
         <v>69165753</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>62367442</v>
       </c>
     </row>
   </sheetData>
@@ -16186,7 +16471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA10"/>
+  <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16247,6 +16532,7 @@
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
     <col width="10" customWidth="1" min="53" max="53"/>
+    <col width="10" customWidth="1" min="54" max="54"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16413,6 +16699,9 @@
       <c r="BA1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BB1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16578,6 +16867,9 @@
       <c r="BA2" t="n">
         <v>58</v>
       </c>
+      <c r="BB2" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16743,6 +17035,9 @@
       <c r="BA3" t="n">
         <v>31</v>
       </c>
+      <c r="BB3" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16908,6 +17203,9 @@
       <c r="BA4" t="n">
         <v>79</v>
       </c>
+      <c r="BB4" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17073,6 +17371,9 @@
       <c r="BA5" t="n">
         <v>48</v>
       </c>
+      <c r="BB5" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17238,6 +17539,9 @@
       <c r="BA6" t="n">
         <v>0</v>
       </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17403,6 +17707,9 @@
       <c r="BA7" t="n">
         <v>39</v>
       </c>
+      <c r="BB7" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17568,6 +17875,9 @@
       <c r="BA8" t="n">
         <v>69</v>
       </c>
+      <c r="BB8" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17733,6 +18043,9 @@
       <c r="BA9" t="n">
         <v>17</v>
       </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17897,6 +18210,9 @@
       </c>
       <c r="BA10" t="n">
         <v>76</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -17910,7 +18226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17931,6 +18247,7 @@
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17977,6 +18294,9 @@
       <c r="M1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18022,6 +18342,9 @@
       <c r="M2" t="n">
         <v>83</v>
       </c>
+      <c r="N2" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18067,6 +18390,9 @@
       <c r="M3" t="n">
         <v>34</v>
       </c>
+      <c r="N3" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18112,6 +18438,9 @@
       <c r="M4" t="n">
         <v>89</v>
       </c>
+      <c r="N4" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18157,6 +18486,9 @@
       <c r="M5" t="n">
         <v>27</v>
       </c>
+      <c r="N5" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18202,6 +18534,9 @@
       <c r="M6" t="n">
         <v>0</v>
       </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18247,6 +18582,9 @@
       <c r="M7" t="n">
         <v>42</v>
       </c>
+      <c r="N7" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18292,6 +18630,9 @@
       <c r="M8" t="n">
         <v>51</v>
       </c>
+      <c r="N8" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18337,6 +18678,9 @@
       <c r="M9" t="n">
         <v>56</v>
       </c>
+      <c r="N9" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18381,6 +18725,9 @@
       </c>
       <c r="M10" t="n">
         <v>63</v>
+      </c>
+      <c r="N10" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -18394,7 +18741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA10"/>
+  <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18455,6 +18802,7 @@
     <col width="10" customWidth="1" min="51" max="51"/>
     <col width="10" customWidth="1" min="52" max="52"/>
     <col width="10" customWidth="1" min="53" max="53"/>
+    <col width="10" customWidth="1" min="54" max="54"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18621,6 +18969,9 @@
       <c r="BA1" s="1" t="n">
         <v>20251208</v>
       </c>
+      <c r="BB1" s="1" t="n">
+        <v>20251209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18786,6 +19137,9 @@
       <c r="BA2" t="n">
         <v>23</v>
       </c>
+      <c r="BB2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18951,6 +19305,9 @@
       <c r="BA3" t="n">
         <v>-28</v>
       </c>
+      <c r="BB3" t="n">
+        <v>-18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -19116,6 +19473,9 @@
       <c r="BA4" t="n">
         <v>32</v>
       </c>
+      <c r="BB4" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -19281,6 +19641,9 @@
       <c r="BA5" t="n">
         <v>1</v>
       </c>
+      <c r="BB5" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -19446,6 +19809,9 @@
       <c r="BA6" t="n">
         <v>-29</v>
       </c>
+      <c r="BB6" t="n">
+        <v>-25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19611,6 +19977,9 @@
       <c r="BA7" t="n">
         <v>10</v>
       </c>
+      <c r="BB7" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -19776,6 +20145,9 @@
       <c r="BA8" t="n">
         <v>44</v>
       </c>
+      <c r="BB8" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19941,6 +20313,9 @@
       <c r="BA9" t="n">
         <v>-59</v>
       </c>
+      <c r="BB9" t="n">
+        <v>-86</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -20105,6 +20480,9 @@
       </c>
       <c r="BA10" t="n">
         <v>40</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/US_Stocks_Individual.xlsx
+++ b/US_Stocks_Individual.xlsx
@@ -606,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,6 +628,7 @@
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -677,6 +678,9 @@
       <c r="N1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -725,6 +729,9 @@
       <c r="N2" t="n">
         <v>57</v>
       </c>
+      <c r="O2" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -773,6 +780,9 @@
       <c r="N3" t="n">
         <v>-1</v>
       </c>
+      <c r="O3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -821,6 +831,9 @@
       <c r="N4" t="n">
         <v>81</v>
       </c>
+      <c r="O4" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -869,6 +882,9 @@
       <c r="N5" t="n">
         <v>-48</v>
       </c>
+      <c r="O5" t="n">
+        <v>-86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -917,6 +933,9 @@
       <c r="N6" t="n">
         <v>-83</v>
       </c>
+      <c r="O6" t="n">
+        <v>-80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -965,6 +984,9 @@
       <c r="N7" t="n">
         <v>-4</v>
       </c>
+      <c r="O7" t="n">
+        <v>-13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1013,6 +1035,9 @@
       <c r="N8" t="n">
         <v>14</v>
       </c>
+      <c r="O8" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1061,6 +1086,9 @@
       <c r="N9" t="n">
         <v>-43</v>
       </c>
+      <c r="O9" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1108,6 +1136,9 @@
       </c>
       <c r="N10" t="n">
         <v>31</v>
+      </c>
+      <c r="O10" t="n">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB10"/>
+  <dimension ref="A1:BC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,6 +1214,7 @@
     <col width="12" customWidth="1" min="52" max="52"/>
     <col width="12" customWidth="1" min="53" max="53"/>
     <col width="12" customWidth="1" min="54" max="54"/>
+    <col width="12" customWidth="1" min="55" max="55"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1456,6 +1488,11 @@
           <t>20251209</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>20251210</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1624,6 +1661,9 @@
       <c r="BB2" t="n">
         <v>101</v>
       </c>
+      <c r="BC2" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1792,6 +1832,9 @@
       <c r="BB3" t="n">
         <v>99</v>
       </c>
+      <c r="BC3" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1960,6 +2003,9 @@
       <c r="BB4" t="n">
         <v>104</v>
       </c>
+      <c r="BC4" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2128,6 +2174,9 @@
       <c r="BB5" t="n">
         <v>100</v>
       </c>
+      <c r="BC5" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2296,6 +2345,9 @@
       <c r="BB6" t="n">
         <v>31</v>
       </c>
+      <c r="BC6" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2464,6 +2516,9 @@
       <c r="BB7" t="n">
         <v>101</v>
       </c>
+      <c r="BC7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2632,6 +2687,9 @@
       <c r="BB8" t="n">
         <v>106</v>
       </c>
+      <c r="BC8" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2800,6 +2858,9 @@
       <c r="BB9" t="n">
         <v>97</v>
       </c>
+      <c r="BC9" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2967,6 +3028,9 @@
       </c>
       <c r="BB10" t="n">
         <v>105</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +3044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3023,6 +3087,7 @@
     <col width="12" customWidth="1" min="33" max="33"/>
     <col width="12" customWidth="1" min="34" max="34"/>
     <col width="12" customWidth="1" min="35" max="35"/>
+    <col width="12" customWidth="1" min="36" max="36"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3201,6 +3266,11 @@
           <t>20251209</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>20251210</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3312,6 +3382,9 @@
       <c r="AI2" t="n">
         <v>20.63</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>24.29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3423,6 +3496,9 @@
       <c r="AI3" t="n">
         <v>-32.12</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>-42.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3534,6 +3610,9 @@
       <c r="AI4" t="n">
         <v>20.73</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>20.32</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3645,6 +3724,9 @@
       <c r="AI5" t="n">
         <v>-12.97</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>-16.84</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3756,6 +3838,9 @@
       <c r="AI6" t="n">
         <v>15.64</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3867,6 +3952,9 @@
       <c r="AI7" t="n">
         <v>-38.91</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-44.15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3978,6 +4066,9 @@
       <c r="AI8" t="n">
         <v>-19</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-21.68</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4089,6 +4180,9 @@
       <c r="AI9" t="n">
         <v>-20.19</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>-20.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4199,6 +4293,9 @@
       </c>
       <c r="AI10" t="n">
         <v>-1.02</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4212,7 +4309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4234,6 +4331,7 @@
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4307,6 +4405,11 @@
           <t>20251209</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>20251210</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4355,6 +4458,9 @@
       <c r="N2" t="n">
         <v>32</v>
       </c>
+      <c r="O2" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4403,6 +4509,9 @@
       <c r="N3" t="n">
         <v>26</v>
       </c>
+      <c r="O3" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4451,6 +4560,9 @@
       <c r="N4" t="n">
         <v>41</v>
       </c>
+      <c r="O4" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4499,6 +4611,9 @@
       <c r="N5" t="n">
         <v>33</v>
       </c>
+      <c r="O5" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4547,6 +4662,9 @@
       <c r="N6" t="n">
         <v>166</v>
       </c>
+      <c r="O6" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4595,6 +4713,9 @@
       <c r="N7" t="n">
         <v>38</v>
       </c>
+      <c r="O7" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4643,6 +4764,9 @@
       <c r="N8" t="n">
         <v>18</v>
       </c>
+      <c r="O8" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4691,6 +4815,9 @@
       <c r="N9" t="n">
         <v>52</v>
       </c>
+      <c r="O9" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4738,6 +4865,9 @@
       </c>
       <c r="N10" t="n">
         <v>36</v>
+      </c>
+      <c r="O10" t="n">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +4881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU10"/>
+  <dimension ref="A1:BV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4832,6 +4962,7 @@
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
+    <col width="12" customWidth="1" min="74" max="74"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5058,6 +5189,9 @@
       <c r="BU1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BV1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5283,6 +5417,9 @@
       <c r="BU2" t="n">
         <v>278.16</v>
       </c>
+      <c r="BV2" t="n">
+        <v>277.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5508,6 +5645,9 @@
       <c r="BU3" t="n">
         <v>226.84</v>
       </c>
+      <c r="BV3" t="n">
+        <v>228.805</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5733,6 +5873,9 @@
       <c r="BU4" t="n">
         <v>312.37</v>
       </c>
+      <c r="BV4" t="n">
+        <v>315.83</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5958,6 +6101,9 @@
       <c r="BU5" t="n">
         <v>489.1</v>
       </c>
+      <c r="BV5" t="n">
+        <v>484.03</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6183,6 +6329,9 @@
       <c r="BU6" t="n">
         <v>97.03</v>
       </c>
+      <c r="BV6" t="n">
+        <v>96.735</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6408,6 +6557,9 @@
       <c r="BU7" t="n">
         <v>185.56</v>
       </c>
+      <c r="BV7" t="n">
+        <v>184.965</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6633,6 +6785,9 @@
       <c r="BU8" t="n">
         <v>180.97</v>
       </c>
+      <c r="BV8" t="n">
+        <v>184.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6858,6 +7013,9 @@
       <c r="BU9" t="n">
         <v>83.31999999999999</v>
       </c>
+      <c r="BV9" t="n">
+        <v>82.20999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7082,6 +7240,9 @@
       </c>
       <c r="BU10" t="n">
         <v>437.54</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>446.065</v>
       </c>
     </row>
   </sheetData>
@@ -7095,7 +7256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU10"/>
+  <dimension ref="A1:BV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7176,6 +7337,7 @@
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
+    <col width="12" customWidth="1" min="74" max="74"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7402,6 +7564,9 @@
       <c r="BU1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BV1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7627,6 +7792,9 @@
       <c r="BU2" t="n">
         <v>280.03</v>
       </c>
+      <c r="BV2" t="n">
+        <v>279.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7852,6 +8020,9 @@
       <c r="BU3" t="n">
         <v>228.57</v>
       </c>
+      <c r="BV3" t="n">
+        <v>232.42</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8077,6 +8248,9 @@
       <c r="BU4" t="n">
         <v>317.99</v>
       </c>
+      <c r="BV4" t="n">
+        <v>321.31</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8302,6 +8476,9 @@
       <c r="BU5" t="n">
         <v>492.12</v>
       </c>
+      <c r="BV5" t="n">
+        <v>484.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8527,6 +8704,9 @@
       <c r="BU6" t="n">
         <v>97.23999999999999</v>
       </c>
+      <c r="BV6" t="n">
+        <v>96.97</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8752,6 +8932,9 @@
       <c r="BU7" t="n">
         <v>185.7167</v>
       </c>
+      <c r="BV7" t="n">
+        <v>185.48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8977,6 +9160,9 @@
       <c r="BU8" t="n">
         <v>182.8499</v>
       </c>
+      <c r="BV8" t="n">
+        <v>190.39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9202,6 +9388,9 @@
       <c r="BU9" t="n">
         <v>83.33</v>
       </c>
+      <c r="BV9" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9426,6 +9615,9 @@
       </c>
       <c r="BU10" t="n">
         <v>452.39</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>456.88</v>
       </c>
     </row>
   </sheetData>
@@ -9439,7 +9631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU10"/>
+  <dimension ref="A1:BV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9520,6 +9712,7 @@
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
+    <col width="12" customWidth="1" min="74" max="74"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9746,6 +9939,9 @@
       <c r="BU1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BV1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9971,6 +10167,9 @@
       <c r="BU2" t="n">
         <v>276.92</v>
       </c>
+      <c r="BV2" t="n">
+        <v>276.44</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10196,6 +10395,9 @@
       <c r="BU3" t="n">
         <v>225.11</v>
       </c>
+      <c r="BV3" t="n">
+        <v>228.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10421,6 +10623,9 @@
       <c r="BU4" t="n">
         <v>311.895</v>
       </c>
+      <c r="BV4" t="n">
+        <v>314.68</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10646,6 +10851,9 @@
       <c r="BU5" t="n">
         <v>488.5001</v>
       </c>
+      <c r="BV5" t="n">
+        <v>475.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10871,6 +11079,9 @@
       <c r="BU6" t="n">
         <v>95.45</v>
       </c>
+      <c r="BV6" t="n">
+        <v>92.34999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11096,6 +11307,9 @@
       <c r="BU7" t="n">
         <v>183.32</v>
       </c>
+      <c r="BV7" t="n">
+        <v>182.035</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11321,6 +11535,9 @@
       <c r="BU8" t="n">
         <v>180.38</v>
       </c>
+      <c r="BV8" t="n">
+        <v>182.75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11546,6 +11763,9 @@
       <c r="BU9" t="n">
         <v>82.02</v>
       </c>
+      <c r="BV9" t="n">
+        <v>81.97</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11770,6 +11990,9 @@
       </c>
       <c r="BU10" t="n">
         <v>435.7</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>443.61</v>
       </c>
     </row>
   </sheetData>
@@ -11783,7 +12006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU10"/>
+  <dimension ref="A1:BV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11864,6 +12087,7 @@
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
+    <col width="12" customWidth="1" min="74" max="74"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12090,6 +12314,9 @@
       <c r="BU1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BV1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12315,6 +12542,9 @@
       <c r="BU2" t="n">
         <v>277.18</v>
       </c>
+      <c r="BV2" t="n">
+        <v>278.78</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12540,6 +12770,9 @@
       <c r="BU3" t="n">
         <v>227.92</v>
       </c>
+      <c r="BV3" t="n">
+        <v>231.78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12765,6 +12998,9 @@
       <c r="BU4" t="n">
         <v>317.08</v>
       </c>
+      <c r="BV4" t="n">
+        <v>320.21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12990,6 +13226,9 @@
       <c r="BU5" t="n">
         <v>492.02</v>
       </c>
+      <c r="BV5" t="n">
+        <v>478.56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13215,6 +13454,9 @@
       <c r="BU6" t="n">
         <v>96.70999999999999</v>
       </c>
+      <c r="BV6" t="n">
+        <v>92.70999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13440,6 +13682,9 @@
       <c r="BU7" t="n">
         <v>184.97</v>
       </c>
+      <c r="BV7" t="n">
+        <v>183.78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13665,6 +13910,9 @@
       <c r="BU8" t="n">
         <v>181.84</v>
       </c>
+      <c r="BV8" t="n">
+        <v>187.91</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13890,6 +14138,9 @@
       <c r="BU9" t="n">
         <v>82.28</v>
       </c>
+      <c r="BV9" t="n">
+        <v>83.84999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14114,6 +14365,9 @@
       </c>
       <c r="BU10" t="n">
         <v>445.17</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>451.45</v>
       </c>
     </row>
   </sheetData>
@@ -14127,7 +14381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU10"/>
+  <dimension ref="A1:BV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14208,6 +14462,7 @@
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
+    <col width="12" customWidth="1" min="74" max="74"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14434,6 +14689,9 @@
       <c r="BU1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BV1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -14659,6 +14917,9 @@
       <c r="BU2" t="n">
         <v>32193256</v>
       </c>
+      <c r="BV2" t="n">
+        <v>33038318</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -14884,6 +15145,9 @@
       <c r="BU3" t="n">
         <v>25841743</v>
       </c>
+      <c r="BV3" t="n">
+        <v>38790736</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -15109,6 +15373,9 @@
       <c r="BU4" t="n">
         <v>30194027</v>
       </c>
+      <c r="BV4" t="n">
+        <v>33428923</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -15334,6 +15601,9 @@
       <c r="BU5" t="n">
         <v>14696078</v>
       </c>
+      <c r="BV5" t="n">
+        <v>35756229</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -15559,6 +15829,9 @@
       <c r="BU6" t="n">
         <v>51745577</v>
       </c>
+      <c r="BV6" t="n">
+        <v>74129272</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -15784,6 +16057,9 @@
       <c r="BU7" t="n">
         <v>144719705</v>
       </c>
+      <c r="BV7" t="n">
+        <v>162785370</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -16009,6 +16285,9 @@
       <c r="BU8" t="n">
         <v>18937574</v>
       </c>
+      <c r="BV8" t="n">
+        <v>59397971</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -16234,6 +16513,9 @@
       <c r="BU9" t="n">
         <v>10322876</v>
       </c>
+      <c r="BV9" t="n">
+        <v>10539603</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16458,6 +16740,9 @@
       </c>
       <c r="BU10" t="n">
         <v>62367442</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>63257475</v>
       </c>
     </row>
   </sheetData>
@@ -16471,7 +16756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB10"/>
+  <dimension ref="A1:BC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16533,6 +16818,7 @@
     <col width="10" customWidth="1" min="52" max="52"/>
     <col width="10" customWidth="1" min="53" max="53"/>
     <col width="10" customWidth="1" min="54" max="54"/>
+    <col width="10" customWidth="1" min="55" max="55"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16702,6 +16988,9 @@
       <c r="BB1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BC1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16870,6 +17159,9 @@
       <c r="BB2" t="n">
         <v>55</v>
       </c>
+      <c r="BC2" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17038,6 +17330,9 @@
       <c r="BB3" t="n">
         <v>34</v>
       </c>
+      <c r="BC3" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17206,6 +17501,9 @@
       <c r="BB4" t="n">
         <v>86</v>
       </c>
+      <c r="BC4" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17374,6 +17672,9 @@
       <c r="BB5" t="n">
         <v>51</v>
       </c>
+      <c r="BC5" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17542,6 +17843,9 @@
       <c r="BB6" t="n">
         <v>0</v>
       </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17710,6 +18014,9 @@
       <c r="BB7" t="n">
         <v>47</v>
       </c>
+      <c r="BC7" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17878,6 +18185,9 @@
       <c r="BB8" t="n">
         <v>75</v>
       </c>
+      <c r="BC8" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18046,6 +18356,9 @@
       <c r="BB9" t="n">
         <v>0</v>
       </c>
+      <c r="BC9" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18213,6 +18526,9 @@
       </c>
       <c r="BB10" t="n">
         <v>85</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -18226,7 +18542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18248,6 +18564,7 @@
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18297,6 +18614,9 @@
       <c r="N1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18345,6 +18665,9 @@
       <c r="N2" t="n">
         <v>81</v>
       </c>
+      <c r="O2" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18393,6 +18716,9 @@
       <c r="N3" t="n">
         <v>36</v>
       </c>
+      <c r="O3" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18441,6 +18767,9 @@
       <c r="N4" t="n">
         <v>93</v>
       </c>
+      <c r="O4" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18489,6 +18818,9 @@
       <c r="N5" t="n">
         <v>28</v>
       </c>
+      <c r="O5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18537,6 +18869,9 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18585,6 +18920,9 @@
       <c r="N7" t="n">
         <v>40</v>
       </c>
+      <c r="O7" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18633,6 +18971,9 @@
       <c r="N8" t="n">
         <v>52</v>
       </c>
+      <c r="O8" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18681,6 +19022,9 @@
       <c r="N9" t="n">
         <v>43</v>
       </c>
+      <c r="O9" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18728,6 +19072,9 @@
       </c>
       <c r="N10" t="n">
         <v>70</v>
+      </c>
+      <c r="O10" t="n">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -18741,7 +19088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB10"/>
+  <dimension ref="A1:BC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18803,6 +19150,7 @@
     <col width="10" customWidth="1" min="52" max="52"/>
     <col width="10" customWidth="1" min="53" max="53"/>
     <col width="10" customWidth="1" min="54" max="54"/>
+    <col width="10" customWidth="1" min="55" max="55"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18972,6 +19320,9 @@
       <c r="BB1" s="1" t="n">
         <v>20251209</v>
       </c>
+      <c r="BC1" s="1" t="n">
+        <v>20251210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -19140,6 +19491,9 @@
       <c r="BB2" t="n">
         <v>14</v>
       </c>
+      <c r="BC2" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -19308,6 +19662,9 @@
       <c r="BB3" t="n">
         <v>-18</v>
       </c>
+      <c r="BC3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -19476,6 +19833,9 @@
       <c r="BB4" t="n">
         <v>38</v>
       </c>
+      <c r="BC4" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -19644,6 +20004,9 @@
       <c r="BB5" t="n">
         <v>8</v>
       </c>
+      <c r="BC5" t="n">
+        <v>-43</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -19812,6 +20175,9 @@
       <c r="BB6" t="n">
         <v>-25</v>
       </c>
+      <c r="BC6" t="n">
+        <v>-22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19980,6 +20346,9 @@
       <c r="BB7" t="n">
         <v>14</v>
       </c>
+      <c r="BC7" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -20148,6 +20517,9 @@
       <c r="BB8" t="n">
         <v>54</v>
       </c>
+      <c r="BC8" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -20316,6 +20688,9 @@
       <c r="BB9" t="n">
         <v>-86</v>
       </c>
+      <c r="BC9" t="n">
+        <v>-32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -20483,6 +20858,9 @@
       </c>
       <c r="BB10" t="n">
         <v>54</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/US_Stocks_Individual.xlsx
+++ b/US_Stocks_Individual.xlsx
@@ -606,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,7 @@
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -681,6 +682,9 @@
       <c r="O1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="P1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +736,9 @@
       <c r="O2" t="n">
         <v>62</v>
       </c>
+      <c r="P2" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -783,6 +790,9 @@
       <c r="O3" t="n">
         <v>18</v>
       </c>
+      <c r="P3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -834,6 +844,9 @@
       <c r="O4" t="n">
         <v>83</v>
       </c>
+      <c r="P4" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -885,6 +898,9 @@
       <c r="O5" t="n">
         <v>-86</v>
       </c>
+      <c r="P5" t="n">
+        <v>-69</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -936,6 +952,9 @@
       <c r="O6" t="n">
         <v>-80</v>
       </c>
+      <c r="P6" t="n">
+        <v>-76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -987,6 +1006,9 @@
       <c r="O7" t="n">
         <v>-13</v>
       </c>
+      <c r="P7" t="n">
+        <v>-33</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1038,6 +1060,9 @@
       <c r="O8" t="n">
         <v>43</v>
       </c>
+      <c r="P8" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1089,6 +1114,9 @@
       <c r="O9" t="n">
         <v>-5</v>
       </c>
+      <c r="P9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1139,6 +1167,9 @@
       </c>
       <c r="O10" t="n">
         <v>48</v>
+      </c>
+      <c r="P10" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC10"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,6 +1246,7 @@
     <col width="12" customWidth="1" min="53" max="53"/>
     <col width="12" customWidth="1" min="54" max="54"/>
     <col width="12" customWidth="1" min="55" max="55"/>
+    <col width="12" customWidth="1" min="56" max="56"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1493,6 +1525,11 @@
           <t>20251210</t>
         </is>
       </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>20251211</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1664,6 +1701,9 @@
       <c r="BC2" t="n">
         <v>101</v>
       </c>
+      <c r="BD2" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1835,6 +1875,9 @@
       <c r="BC3" t="n">
         <v>101</v>
       </c>
+      <c r="BD3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2006,6 +2049,9 @@
       <c r="BC4" t="n">
         <v>105</v>
       </c>
+      <c r="BD4" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2177,6 +2223,9 @@
       <c r="BC5" t="n">
         <v>98</v>
       </c>
+      <c r="BD5" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2348,6 +2397,9 @@
       <c r="BC6" t="n">
         <v>36</v>
       </c>
+      <c r="BD6" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2519,6 +2571,9 @@
       <c r="BC7" t="n">
         <v>100</v>
       </c>
+      <c r="BD7" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2690,6 +2745,9 @@
       <c r="BC8" t="n">
         <v>110</v>
       </c>
+      <c r="BD8" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2861,6 +2919,9 @@
       <c r="BC9" t="n">
         <v>99</v>
       </c>
+      <c r="BD9" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3031,6 +3092,9 @@
       </c>
       <c r="BC10" t="n">
         <v>106</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3044,7 +3108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3088,6 +3152,7 @@
     <col width="12" customWidth="1" min="34" max="34"/>
     <col width="12" customWidth="1" min="35" max="35"/>
     <col width="12" customWidth="1" min="36" max="36"/>
+    <col width="12" customWidth="1" min="37" max="37"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3271,6 +3336,11 @@
           <t>20251210</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>20251211</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3385,6 +3455,9 @@
       <c r="AJ2" t="n">
         <v>24.29</v>
       </c>
+      <c r="AK2" t="n">
+        <v>26.07</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3499,6 +3572,9 @@
       <c r="AJ3" t="n">
         <v>-42.12</v>
       </c>
+      <c r="AK3" t="n">
+        <v>-49.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3613,6 +3689,9 @@
       <c r="AJ4" t="n">
         <v>20.32</v>
       </c>
+      <c r="AK4" t="n">
+        <v>15.62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3727,6 +3806,9 @@
       <c r="AJ5" t="n">
         <v>-16.84</v>
       </c>
+      <c r="AK5" t="n">
+        <v>-25.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3841,6 +3923,9 @@
       <c r="AJ6" t="n">
         <v>-1</v>
       </c>
+      <c r="AK6" t="n">
+        <v>-20.21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3955,6 +4040,9 @@
       <c r="AJ7" t="n">
         <v>-44.15</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-52.99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4069,6 +4157,9 @@
       <c r="AJ8" t="n">
         <v>-21.68</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-19.54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4183,6 +4274,9 @@
       <c r="AJ9" t="n">
         <v>-20.12</v>
       </c>
+      <c r="AK9" t="n">
+        <v>-24.29</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4296,6 +4390,9 @@
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4309,7 +4406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4332,6 +4429,7 @@
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4410,6 +4508,11 @@
           <t>20251210</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>20251211</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4461,6 +4564,9 @@
       <c r="O2" t="n">
         <v>34</v>
       </c>
+      <c r="P2" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4512,6 +4618,9 @@
       <c r="O3" t="n">
         <v>40</v>
       </c>
+      <c r="P3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4563,6 +4672,9 @@
       <c r="O4" t="n">
         <v>46</v>
       </c>
+      <c r="P4" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4614,6 +4726,9 @@
       <c r="O5" t="n">
         <v>79</v>
       </c>
+      <c r="P5" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4665,6 +4780,9 @@
       <c r="O6" t="n">
         <v>220</v>
       </c>
+      <c r="P6" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4716,6 +4834,9 @@
       <c r="O7" t="n">
         <v>42</v>
       </c>
+      <c r="P7" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4767,6 +4888,9 @@
       <c r="O8" t="n">
         <v>57</v>
       </c>
+      <c r="P8" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4818,6 +4942,9 @@
       <c r="O9" t="n">
         <v>53</v>
       </c>
+      <c r="P9" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4868,6 +4995,9 @@
       </c>
       <c r="O10" t="n">
         <v>37</v>
+      </c>
+      <c r="P10" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4881,7 +5011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV10"/>
+  <dimension ref="A1:BW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4963,6 +5093,7 @@
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
+    <col width="12" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5192,6 +5323,9 @@
       <c r="BV1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BW1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5420,6 +5554,9 @@
       <c r="BV2" t="n">
         <v>277.75</v>
       </c>
+      <c r="BW2" t="n">
+        <v>279.095</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5648,6 +5785,9 @@
       <c r="BV3" t="n">
         <v>228.805</v>
       </c>
+      <c r="BW3" t="n">
+        <v>230.71</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5876,6 +6016,9 @@
       <c r="BV4" t="n">
         <v>315.83</v>
       </c>
+      <c r="BW4" t="n">
+        <v>320.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6104,6 +6247,9 @@
       <c r="BV5" t="n">
         <v>484.03</v>
       </c>
+      <c r="BW5" t="n">
+        <v>476.63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6332,6 +6478,9 @@
       <c r="BV6" t="n">
         <v>96.735</v>
       </c>
+      <c r="BW6" t="n">
+        <v>93.895</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6560,6 +6709,9 @@
       <c r="BV7" t="n">
         <v>184.965</v>
       </c>
+      <c r="BW7" t="n">
+        <v>180.275</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6788,6 +6940,9 @@
       <c r="BV8" t="n">
         <v>184.95</v>
       </c>
+      <c r="BW8" t="n">
+        <v>184.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7016,6 +7171,9 @@
       <c r="BV9" t="n">
         <v>82.20999999999999</v>
       </c>
+      <c r="BW9" t="n">
+        <v>84.22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7243,6 +7401,9 @@
       </c>
       <c r="BV10" t="n">
         <v>446.065</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>448.945</v>
       </c>
     </row>
   </sheetData>
@@ -7256,7 +7417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV10"/>
+  <dimension ref="A1:BW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7338,6 +7499,7 @@
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
+    <col width="12" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7567,6 +7729,9 @@
       <c r="BV1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BW1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7795,6 +7960,9 @@
       <c r="BV2" t="n">
         <v>279.75</v>
       </c>
+      <c r="BW2" t="n">
+        <v>279.59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8023,6 +8191,9 @@
       <c r="BV3" t="n">
         <v>232.42</v>
       </c>
+      <c r="BW3" t="n">
+        <v>232.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8251,6 +8422,9 @@
       <c r="BV4" t="n">
         <v>321.31</v>
       </c>
+      <c r="BW4" t="n">
+        <v>321.12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8479,6 +8653,9 @@
       <c r="BV5" t="n">
         <v>484.25</v>
       </c>
+      <c r="BW5" t="n">
+        <v>486.03</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8707,6 +8884,9 @@
       <c r="BV6" t="n">
         <v>96.97</v>
       </c>
+      <c r="BW6" t="n">
+        <v>94.81999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8935,6 +9115,9 @@
       <c r="BV7" t="n">
         <v>185.48</v>
       </c>
+      <c r="BW7" t="n">
+        <v>181.32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9163,6 +9346,9 @@
       <c r="BV8" t="n">
         <v>190.39</v>
       </c>
+      <c r="BW8" t="n">
+        <v>188.05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9391,6 +9577,9 @@
       <c r="BV9" t="n">
         <v>84</v>
       </c>
+      <c r="BW9" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9618,6 +9807,9 @@
       </c>
       <c r="BV10" t="n">
         <v>456.88</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>449.2699</v>
       </c>
     </row>
   </sheetData>
@@ -9631,7 +9823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV10"/>
+  <dimension ref="A1:BW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9713,6 +9905,7 @@
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
+    <col width="12" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9942,6 +10135,9 @@
       <c r="BV1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BW1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10170,6 +10366,9 @@
       <c r="BV2" t="n">
         <v>276.44</v>
       </c>
+      <c r="BW2" t="n">
+        <v>273.81</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10398,6 +10597,9 @@
       <c r="BV3" t="n">
         <v>228.46</v>
       </c>
+      <c r="BW3" t="n">
+        <v>228.6901</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10626,6 +10828,9 @@
       <c r="BV4" t="n">
         <v>314.68</v>
       </c>
+      <c r="BW4" t="n">
+        <v>308.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10854,6 +11059,9 @@
       <c r="BV5" t="n">
         <v>475.08</v>
       </c>
+      <c r="BW5" t="n">
+        <v>475.86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -11082,6 +11290,9 @@
       <c r="BV6" t="n">
         <v>92.34999999999999</v>
       </c>
+      <c r="BW6" t="n">
+        <v>92.76000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11310,6 +11521,9 @@
       <c r="BV7" t="n">
         <v>182.035</v>
       </c>
+      <c r="BW7" t="n">
+        <v>176.62</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11538,6 +11752,9 @@
       <c r="BV8" t="n">
         <v>182.75</v>
       </c>
+      <c r="BW8" t="n">
+        <v>180.21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11766,6 +11983,9 @@
       <c r="BV9" t="n">
         <v>81.97</v>
       </c>
+      <c r="BW9" t="n">
+        <v>83.735</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11993,6 +12213,9 @@
       </c>
       <c r="BV10" t="n">
         <v>443.61</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>440.33</v>
       </c>
     </row>
   </sheetData>
@@ -12006,7 +12229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV10"/>
+  <dimension ref="A1:BW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12088,6 +12311,7 @@
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
+    <col width="12" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12317,6 +12541,9 @@
       <c r="BV1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BW1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12545,6 +12772,9 @@
       <c r="BV2" t="n">
         <v>278.78</v>
       </c>
+      <c r="BW2" t="n">
+        <v>278.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12773,6 +13003,9 @@
       <c r="BV3" t="n">
         <v>231.78</v>
       </c>
+      <c r="BW3" t="n">
+        <v>230.28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13001,6 +13234,9 @@
       <c r="BV4" t="n">
         <v>320.21</v>
       </c>
+      <c r="BW4" t="n">
+        <v>312.43</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13229,6 +13465,9 @@
       <c r="BV5" t="n">
         <v>478.56</v>
       </c>
+      <c r="BW5" t="n">
+        <v>483.47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13457,6 +13696,9 @@
       <c r="BV6" t="n">
         <v>92.70999999999999</v>
       </c>
+      <c r="BW6" t="n">
+        <v>94.09</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13685,6 +13927,9 @@
       <c r="BV7" t="n">
         <v>183.78</v>
       </c>
+      <c r="BW7" t="n">
+        <v>180.93</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13913,6 +14158,9 @@
       <c r="BV8" t="n">
         <v>187.91</v>
       </c>
+      <c r="BW8" t="n">
+        <v>187.54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14141,6 +14389,9 @@
       <c r="BV9" t="n">
         <v>83.84999999999999</v>
       </c>
+      <c r="BW9" t="n">
+        <v>84.73999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14368,6 +14619,9 @@
       </c>
       <c r="BV10" t="n">
         <v>451.45</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>446.89</v>
       </c>
     </row>
   </sheetData>
@@ -14381,7 +14635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV10"/>
+  <dimension ref="A1:BW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14463,6 +14717,7 @@
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
+    <col width="12" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14692,6 +14947,9 @@
       <c r="BV1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BW1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -14920,6 +15178,9 @@
       <c r="BV2" t="n">
         <v>33038318</v>
       </c>
+      <c r="BW2" t="n">
+        <v>33247986</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -15148,6 +15409,9 @@
       <c r="BV3" t="n">
         <v>38790736</v>
       </c>
+      <c r="BW3" t="n">
+        <v>28249599</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -15376,6 +15640,9 @@
       <c r="BV4" t="n">
         <v>33428923</v>
       </c>
+      <c r="BW4" t="n">
+        <v>42353697</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -15604,6 +15871,9 @@
       <c r="BV5" t="n">
         <v>35756229</v>
       </c>
+      <c r="BW5" t="n">
+        <v>24669180</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -15832,6 +16102,9 @@
       <c r="BV6" t="n">
         <v>74129272</v>
       </c>
+      <c r="BW6" t="n">
+        <v>43949009</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -16060,6 +16333,9 @@
       <c r="BV7" t="n">
         <v>162785370</v>
       </c>
+      <c r="BW7" t="n">
+        <v>182136641</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -16288,6 +16564,9 @@
       <c r="BV8" t="n">
         <v>59397971</v>
       </c>
+      <c r="BW8" t="n">
+        <v>36843184</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -16516,6 +16795,9 @@
       <c r="BV9" t="n">
         <v>10539603</v>
       </c>
+      <c r="BW9" t="n">
+        <v>6893969</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16743,6 +17025,9 @@
       </c>
       <c r="BV10" t="n">
         <v>63257475</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>55979492</v>
       </c>
     </row>
   </sheetData>
@@ -16756,7 +17041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC10"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16819,6 +17104,7 @@
     <col width="10" customWidth="1" min="53" max="53"/>
     <col width="10" customWidth="1" min="54" max="54"/>
     <col width="10" customWidth="1" min="55" max="55"/>
+    <col width="10" customWidth="1" min="56" max="56"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16991,6 +17277,9 @@
       <c r="BC1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BD1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17162,6 +17451,9 @@
       <c r="BC2" t="n">
         <v>63</v>
       </c>
+      <c r="BD2" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17333,6 +17625,9 @@
       <c r="BC3" t="n">
         <v>54</v>
       </c>
+      <c r="BD3" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17504,6 +17799,9 @@
       <c r="BC4" t="n">
         <v>93</v>
       </c>
+      <c r="BD4" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17675,6 +17973,9 @@
       <c r="BC5" t="n">
         <v>17</v>
       </c>
+      <c r="BD5" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17846,6 +18147,9 @@
       <c r="BC6" t="n">
         <v>0</v>
       </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18017,6 +18321,9 @@
       <c r="BC7" t="n">
         <v>40</v>
       </c>
+      <c r="BD7" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18188,6 +18495,9 @@
       <c r="BC8" t="n">
         <v>100</v>
       </c>
+      <c r="BD8" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18359,6 +18669,9 @@
       <c r="BC9" t="n">
         <v>32</v>
       </c>
+      <c r="BD9" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18529,6 +18842,9 @@
       </c>
       <c r="BC10" t="n">
         <v>94</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -18542,7 +18858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18565,6 +18881,7 @@
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18617,6 +18934,9 @@
       <c r="O1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="P1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18668,6 +18988,9 @@
       <c r="O2" t="n">
         <v>85</v>
       </c>
+      <c r="P2" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18719,6 +19042,9 @@
       <c r="O3" t="n">
         <v>46</v>
       </c>
+      <c r="P3" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18770,6 +19096,9 @@
       <c r="O4" t="n">
         <v>96</v>
       </c>
+      <c r="P4" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18821,6 +19150,9 @@
       <c r="O5" t="n">
         <v>9</v>
       </c>
+      <c r="P5" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18872,6 +19204,9 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18923,6 +19258,9 @@
       <c r="O7" t="n">
         <v>37</v>
       </c>
+      <c r="P7" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18974,6 +19312,9 @@
       <c r="O8" t="n">
         <v>63</v>
       </c>
+      <c r="P8" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19025,6 +19366,9 @@
       <c r="O9" t="n">
         <v>61</v>
       </c>
+      <c r="P9" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19075,6 +19419,9 @@
       </c>
       <c r="O10" t="n">
         <v>78</v>
+      </c>
+      <c r="P10" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -19088,7 +19435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC10"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19151,6 +19498,7 @@
     <col width="10" customWidth="1" min="53" max="53"/>
     <col width="10" customWidth="1" min="54" max="54"/>
     <col width="10" customWidth="1" min="55" max="55"/>
+    <col width="10" customWidth="1" min="56" max="56"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19323,6 +19671,9 @@
       <c r="BC1" s="1" t="n">
         <v>20251210</v>
       </c>
+      <c r="BD1" s="1" t="n">
+        <v>20251211</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -19494,6 +19845,9 @@
       <c r="BC2" t="n">
         <v>26</v>
       </c>
+      <c r="BD2" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -19665,6 +20019,9 @@
       <c r="BC3" t="n">
         <v>16</v>
       </c>
+      <c r="BD3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -19836,6 +20193,9 @@
       <c r="BC4" t="n">
         <v>43</v>
       </c>
+      <c r="BD4" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -20007,6 +20367,9 @@
       <c r="BC5" t="n">
         <v>-43</v>
       </c>
+      <c r="BD5" t="n">
+        <v>-18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -20178,6 +20541,9 @@
       <c r="BC6" t="n">
         <v>-22</v>
       </c>
+      <c r="BD6" t="n">
+        <v>-18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -20349,6 +20715,9 @@
       <c r="BC7" t="n">
         <v>7</v>
       </c>
+      <c r="BD7" t="n">
+        <v>-23</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -20520,6 +20889,9 @@
       <c r="BC8" t="n">
         <v>89</v>
       </c>
+      <c r="BD8" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -20691,6 +21063,9 @@
       <c r="BC9" t="n">
         <v>-32</v>
       </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -20861,6 +21236,9 @@
       </c>
       <c r="BC10" t="n">
         <v>67</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/US_Stocks_Individual.xlsx
+++ b/US_Stocks_Individual.xlsx
@@ -606,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,7 @@
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
     <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -685,6 +686,9 @@
       <c r="P1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -739,6 +743,9 @@
       <c r="P2" t="n">
         <v>58</v>
       </c>
+      <c r="Q2" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -793,6 +800,9 @@
       <c r="P3" t="n">
         <v>11</v>
       </c>
+      <c r="Q3" t="n">
+        <v>-9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -847,6 +857,9 @@
       <c r="P4" t="n">
         <v>67</v>
       </c>
+      <c r="Q4" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -901,6 +914,9 @@
       <c r="P5" t="n">
         <v>-69</v>
       </c>
+      <c r="Q5" t="n">
+        <v>-80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -955,6 +971,9 @@
       <c r="P6" t="n">
         <v>-76</v>
       </c>
+      <c r="Q6" t="n">
+        <v>-73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1009,6 +1028,9 @@
       <c r="P7" t="n">
         <v>-33</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1063,6 +1085,9 @@
       <c r="P8" t="n">
         <v>40</v>
       </c>
+      <c r="Q8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1117,6 +1142,9 @@
       <c r="P9" t="n">
         <v>15</v>
       </c>
+      <c r="Q9" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1170,6 +1198,9 @@
       </c>
       <c r="P10" t="n">
         <v>34</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BE10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,6 +1278,7 @@
     <col width="12" customWidth="1" min="54" max="54"/>
     <col width="12" customWidth="1" min="55" max="55"/>
     <col width="12" customWidth="1" min="56" max="56"/>
+    <col width="12" customWidth="1" min="57" max="57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1530,6 +1562,11 @@
           <t>20251211</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>20251212</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1704,6 +1741,9 @@
       <c r="BD2" t="n">
         <v>101</v>
       </c>
+      <c r="BE2" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1878,6 +1918,9 @@
       <c r="BD3" t="n">
         <v>100</v>
       </c>
+      <c r="BE3" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2052,6 +2095,9 @@
       <c r="BD4" t="n">
         <v>102</v>
       </c>
+      <c r="BE4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2226,6 +2272,9 @@
       <c r="BD5" t="n">
         <v>99</v>
       </c>
+      <c r="BE5" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2400,6 +2449,9 @@
       <c r="BD6" t="n">
         <v>45</v>
       </c>
+      <c r="BE6" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2574,6 +2626,9 @@
       <c r="BD7" t="n">
         <v>99</v>
       </c>
+      <c r="BE7" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2748,6 +2803,9 @@
       <c r="BD8" t="n">
         <v>109</v>
       </c>
+      <c r="BE8" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2922,6 +2980,9 @@
       <c r="BD9" t="n">
         <v>100</v>
       </c>
+      <c r="BE9" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3095,6 +3156,9 @@
       </c>
       <c r="BD10" t="n">
         <v>105</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3108,7 +3172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3153,6 +3217,7 @@
     <col width="12" customWidth="1" min="35" max="35"/>
     <col width="12" customWidth="1" min="36" max="36"/>
     <col width="12" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3341,6 +3406,11 @@
           <t>20251211</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>20251212</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3458,6 +3528,9 @@
       <c r="AK2" t="n">
         <v>26.07</v>
       </c>
+      <c r="AL2" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3575,6 +3648,9 @@
       <c r="AK3" t="n">
         <v>-49.31</v>
       </c>
+      <c r="AL3" t="n">
+        <v>-50.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3692,6 +3768,9 @@
       <c r="AK4" t="n">
         <v>15.62</v>
       </c>
+      <c r="AL4" t="n">
+        <v>4.98</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3809,6 +3888,9 @@
       <c r="AK5" t="n">
         <v>-25.05</v>
       </c>
+      <c r="AL5" t="n">
+        <v>-28.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3926,6 +4008,9 @@
       <c r="AK6" t="n">
         <v>-20.21</v>
       </c>
+      <c r="AL6" t="n">
+        <v>-44.45</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4043,6 +4128,9 @@
       <c r="AK7" t="n">
         <v>-52.99</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-48.01</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4160,6 +4248,9 @@
       <c r="AK8" t="n">
         <v>-19.54</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-16.59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4277,6 +4368,9 @@
       <c r="AK9" t="n">
         <v>-24.29</v>
       </c>
+      <c r="AL9" t="n">
+        <v>-25.26</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4393,6 +4487,9 @@
       </c>
       <c r="AK10" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4430,6 +4527,7 @@
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="12" customWidth="1" min="15" max="15"/>
     <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4513,6 +4611,11 @@
           <t>20251211</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>20251212</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4567,6 +4670,9 @@
       <c r="P2" t="n">
         <v>34</v>
       </c>
+      <c r="Q2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4621,6 +4727,9 @@
       <c r="P3" t="n">
         <v>29</v>
       </c>
+      <c r="Q3" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4675,6 +4784,9 @@
       <c r="P4" t="n">
         <v>58</v>
       </c>
+      <c r="Q4" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4729,6 +4841,9 @@
       <c r="P5" t="n">
         <v>54</v>
       </c>
+      <c r="Q5" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4783,6 +4898,9 @@
       <c r="P6" t="n">
         <v>126</v>
       </c>
+      <c r="Q6" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4837,6 +4955,9 @@
       <c r="P7" t="n">
         <v>47</v>
       </c>
+      <c r="Q7" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4891,6 +5012,9 @@
       <c r="P8" t="n">
         <v>35</v>
       </c>
+      <c r="Q8" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4945,6 +5069,9 @@
       <c r="P9" t="n">
         <v>35</v>
       </c>
+      <c r="Q9" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4998,6 +5125,9 @@
       </c>
       <c r="P10" t="n">
         <v>33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5011,7 +5141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW10"/>
+  <dimension ref="A1:BX10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5094,6 +5224,7 @@
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
+    <col width="12" customWidth="1" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5326,6 +5457,9 @@
       <c r="BW1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BX1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5557,6 +5691,9 @@
       <c r="BW2" t="n">
         <v>279.095</v>
       </c>
+      <c r="BX2" t="n">
+        <v>277.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5788,6 +5925,9 @@
       <c r="BW3" t="n">
         <v>230.71</v>
       </c>
+      <c r="BX3" t="n">
+        <v>229.87</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6019,6 +6159,9 @@
       <c r="BW4" t="n">
         <v>320.08</v>
       </c>
+      <c r="BX4" t="n">
+        <v>313.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6250,6 +6393,9 @@
       <c r="BW5" t="n">
         <v>476.63</v>
       </c>
+      <c r="BX5" t="n">
+        <v>479.82</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6481,6 +6627,9 @@
       <c r="BW6" t="n">
         <v>93.895</v>
       </c>
+      <c r="BX6" t="n">
+        <v>95.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6712,6 +6861,9 @@
       <c r="BW7" t="n">
         <v>180.275</v>
       </c>
+      <c r="BX7" t="n">
+        <v>181.11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6943,6 +7095,9 @@
       <c r="BW8" t="n">
         <v>184.8</v>
       </c>
+      <c r="BX8" t="n">
+        <v>185.81</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7174,6 +7329,9 @@
       <c r="BW9" t="n">
         <v>84.22</v>
       </c>
+      <c r="BX9" t="n">
+        <v>85.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7404,6 +7562,9 @@
       </c>
       <c r="BW10" t="n">
         <v>448.945</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>448.09</v>
       </c>
     </row>
   </sheetData>
@@ -7417,7 +7578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW10"/>
+  <dimension ref="A1:BX10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7500,6 +7661,7 @@
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
+    <col width="12" customWidth="1" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7732,6 +7894,9 @@
       <c r="BW1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BX1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7963,6 +8128,9 @@
       <c r="BW2" t="n">
         <v>279.59</v>
       </c>
+      <c r="BX2" t="n">
+        <v>279.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8194,6 +8362,9 @@
       <c r="BW3" t="n">
         <v>232.11</v>
       </c>
+      <c r="BX3" t="n">
+        <v>230.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8425,6 +8596,9 @@
       <c r="BW4" t="n">
         <v>321.12</v>
       </c>
+      <c r="BX4" t="n">
+        <v>314.87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8656,6 +8830,9 @@
       <c r="BW5" t="n">
         <v>486.03</v>
       </c>
+      <c r="BX5" t="n">
+        <v>482.45</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8887,6 +9064,9 @@
       <c r="BW6" t="n">
         <v>94.81999999999999</v>
       </c>
+      <c r="BX6" t="n">
+        <v>96.92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9118,6 +9298,9 @@
       <c r="BW7" t="n">
         <v>181.32</v>
       </c>
+      <c r="BX7" t="n">
+        <v>182.82</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9349,6 +9532,9 @@
       <c r="BW8" t="n">
         <v>188.05</v>
       </c>
+      <c r="BX8" t="n">
+        <v>186.525</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9580,6 +9766,9 @@
       <c r="BW9" t="n">
         <v>85</v>
       </c>
+      <c r="BX9" t="n">
+        <v>85.925</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9810,6 +9999,9 @@
       </c>
       <c r="BW10" t="n">
         <v>449.2699</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>463.01</v>
       </c>
     </row>
   </sheetData>
@@ -9823,7 +10015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW10"/>
+  <dimension ref="A1:BX10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9906,6 +10098,7 @@
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
+    <col width="12" customWidth="1" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10138,6 +10331,9 @@
       <c r="BW1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BX1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10369,6 +10565,9 @@
       <c r="BW2" t="n">
         <v>273.81</v>
       </c>
+      <c r="BX2" t="n">
+        <v>276.82</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10600,6 +10799,9 @@
       <c r="BW3" t="n">
         <v>228.6901</v>
       </c>
+      <c r="BX3" t="n">
+        <v>225.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10831,6 +11033,9 @@
       <c r="BW4" t="n">
         <v>308.6</v>
       </c>
+      <c r="BX4" t="n">
+        <v>305.56</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11062,6 +11267,9 @@
       <c r="BW5" t="n">
         <v>475.86</v>
       </c>
+      <c r="BX5" t="n">
+        <v>476.34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -11293,6 +11501,9 @@
       <c r="BW6" t="n">
         <v>92.76000000000001</v>
       </c>
+      <c r="BX6" t="n">
+        <v>94.65000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11524,6 +11735,9 @@
       <c r="BW7" t="n">
         <v>176.62</v>
       </c>
+      <c r="BX7" t="n">
+        <v>174.62</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11755,6 +11969,9 @@
       <c r="BW8" t="n">
         <v>180.21</v>
       </c>
+      <c r="BX8" t="n">
+        <v>177.6668</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11986,6 +12203,9 @@
       <c r="BW9" t="n">
         <v>83.735</v>
       </c>
+      <c r="BX9" t="n">
+        <v>84.86</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12216,6 +12436,9 @@
       </c>
       <c r="BW10" t="n">
         <v>440.33</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>441.67</v>
       </c>
     </row>
   </sheetData>
@@ -12229,7 +12452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW10"/>
+  <dimension ref="A1:BX10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12312,6 +12535,7 @@
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
+    <col width="12" customWidth="1" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12544,6 +12768,9 @@
       <c r="BW1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BX1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12775,6 +13002,9 @@
       <c r="BW2" t="n">
         <v>278.03</v>
       </c>
+      <c r="BX2" t="n">
+        <v>278.28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13006,6 +13236,9 @@
       <c r="BW3" t="n">
         <v>230.28</v>
       </c>
+      <c r="BX3" t="n">
+        <v>226.19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13237,6 +13470,9 @@
       <c r="BW4" t="n">
         <v>312.43</v>
       </c>
+      <c r="BX4" t="n">
+        <v>309.29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13468,6 +13704,9 @@
       <c r="BW5" t="n">
         <v>483.47</v>
       </c>
+      <c r="BX5" t="n">
+        <v>478.53</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13699,6 +13938,9 @@
       <c r="BW6" t="n">
         <v>94.09</v>
       </c>
+      <c r="BX6" t="n">
+        <v>95.19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13930,6 +14172,9 @@
       <c r="BW7" t="n">
         <v>180.93</v>
       </c>
+      <c r="BX7" t="n">
+        <v>175.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -14161,6 +14406,9 @@
       <c r="BW8" t="n">
         <v>187.54</v>
       </c>
+      <c r="BX8" t="n">
+        <v>183.57</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14392,6 +14640,9 @@
       <c r="BW9" t="n">
         <v>84.73999999999999</v>
       </c>
+      <c r="BX9" t="n">
+        <v>85.34999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14622,6 +14873,9 @@
       </c>
       <c r="BW10" t="n">
         <v>446.89</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>458.96</v>
       </c>
     </row>
   </sheetData>
@@ -14635,7 +14889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW10"/>
+  <dimension ref="A1:BX10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14718,6 +14972,7 @@
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
+    <col width="12" customWidth="1" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14950,6 +15205,9 @@
       <c r="BW1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BX1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -15181,6 +15439,9 @@
       <c r="BW2" t="n">
         <v>33247986</v>
       </c>
+      <c r="BX2" t="n">
+        <v>39532887</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -15412,6 +15673,9 @@
       <c r="BW3" t="n">
         <v>28249599</v>
       </c>
+      <c r="BX3" t="n">
+        <v>35639118</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -15643,6 +15907,9 @@
       <c r="BW4" t="n">
         <v>42353697</v>
       </c>
+      <c r="BX4" t="n">
+        <v>35940170</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -15874,6 +16141,9 @@
       <c r="BW5" t="n">
         <v>24669180</v>
       </c>
+      <c r="BX5" t="n">
+        <v>21248102</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16105,6 +16375,9 @@
       <c r="BW6" t="n">
         <v>43949009</v>
       </c>
+      <c r="BX6" t="n">
+        <v>49323122</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -16336,6 +16609,9 @@
       <c r="BW7" t="n">
         <v>182136641</v>
       </c>
+      <c r="BX7" t="n">
+        <v>204274918</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -16567,6 +16843,9 @@
       <c r="BW8" t="n">
         <v>36843184</v>
       </c>
+      <c r="BX8" t="n">
+        <v>42427356</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -16798,6 +17077,9 @@
       <c r="BW9" t="n">
         <v>6893969</v>
       </c>
+      <c r="BX9" t="n">
+        <v>9071499</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17028,6 +17310,9 @@
       </c>
       <c r="BW10" t="n">
         <v>55979492</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>95656749</v>
       </c>
     </row>
   </sheetData>
@@ -17041,7 +17326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BE10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17105,6 +17390,7 @@
     <col width="10" customWidth="1" min="54" max="54"/>
     <col width="10" customWidth="1" min="55" max="55"/>
     <col width="10" customWidth="1" min="56" max="56"/>
+    <col width="10" customWidth="1" min="57" max="57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17280,6 +17566,9 @@
       <c r="BD1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BE1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17454,6 +17743,9 @@
       <c r="BD2" t="n">
         <v>59</v>
       </c>
+      <c r="BE2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17628,6 +17920,9 @@
       <c r="BD3" t="n">
         <v>64</v>
       </c>
+      <c r="BE3" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17802,6 +18097,9 @@
       <c r="BD4" t="n">
         <v>77</v>
       </c>
+      <c r="BE4" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17976,6 +18274,9 @@
       <c r="BD5" t="n">
         <v>30</v>
       </c>
+      <c r="BE5" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18150,6 +18451,9 @@
       <c r="BD6" t="n">
         <v>0</v>
       </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18324,6 +18628,9 @@
       <c r="BD7" t="n">
         <v>30</v>
       </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18498,6 +18805,9 @@
       <c r="BD8" t="n">
         <v>99</v>
       </c>
+      <c r="BE8" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18672,6 +18982,9 @@
       <c r="BD9" t="n">
         <v>51</v>
       </c>
+      <c r="BE9" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18845,6 +19158,9 @@
       </c>
       <c r="BD10" t="n">
         <v>87</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -18858,7 +19174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18882,6 +19198,7 @@
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
     <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18937,6 +19254,9 @@
       <c r="P1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18991,6 +19311,9 @@
       <c r="P2" t="n">
         <v>83</v>
       </c>
+      <c r="Q2" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -19045,6 +19368,9 @@
       <c r="P3" t="n">
         <v>42</v>
       </c>
+      <c r="Q3" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -19099,6 +19425,9 @@
       <c r="P4" t="n">
         <v>87</v>
       </c>
+      <c r="Q4" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -19153,6 +19482,9 @@
       <c r="P5" t="n">
         <v>16</v>
       </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -19207,6 +19539,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19261,6 +19596,9 @@
       <c r="P7" t="n">
         <v>15</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -19315,6 +19653,9 @@
       <c r="P8" t="n">
         <v>62</v>
       </c>
+      <c r="Q8" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19369,6 +19710,9 @@
       <c r="P9" t="n">
         <v>71</v>
       </c>
+      <c r="Q9" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19422,6 +19766,9 @@
       </c>
       <c r="P10" t="n">
         <v>72</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -19435,7 +19782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BE10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19499,6 +19846,7 @@
     <col width="10" customWidth="1" min="54" max="54"/>
     <col width="10" customWidth="1" min="55" max="55"/>
     <col width="10" customWidth="1" min="56" max="56"/>
+    <col width="10" customWidth="1" min="57" max="57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19674,6 +20022,9 @@
       <c r="BD1" s="1" t="n">
         <v>20251211</v>
       </c>
+      <c r="BE1" s="1" t="n">
+        <v>20251212</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -19848,6 +20199,9 @@
       <c r="BD2" t="n">
         <v>18</v>
       </c>
+      <c r="BE2" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -20022,6 +20376,9 @@
       <c r="BD3" t="n">
         <v>11</v>
       </c>
+      <c r="BE3" t="n">
+        <v>-24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -20196,6 +20553,9 @@
       <c r="BD4" t="n">
         <v>17</v>
       </c>
+      <c r="BE4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -20370,6 +20730,9 @@
       <c r="BD5" t="n">
         <v>-18</v>
       </c>
+      <c r="BE5" t="n">
+        <v>-37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -20544,6 +20907,9 @@
       <c r="BD6" t="n">
         <v>-18</v>
       </c>
+      <c r="BE6" t="n">
+        <v>-13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -20718,6 +21084,9 @@
       <c r="BD7" t="n">
         <v>-23</v>
       </c>
+      <c r="BE7" t="n">
+        <v>-95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -20892,6 +21261,9 @@
       <c r="BD8" t="n">
         <v>84</v>
       </c>
+      <c r="BE8" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -21066,6 +21438,9 @@
       <c r="BD9" t="n">
         <v>0</v>
       </c>
+      <c r="BE9" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -21239,6 +21614,9 @@
       </c>
       <c r="BD10" t="n">
         <v>52</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
